--- a/data/Ethereum/Ethereum20130701.xlsx
+++ b/data/Ethereum/Ethereum20130701.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
